--- a/PRODUTOS/Bazar/Bazar - Automotivos.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Automotivos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aromatizante Gel Rodabrisa 60g Carro Novo</t>
+          <t>Breeze Cheirinho Secret</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8be55813-98cf-462c-b82f-6387c9fcce9e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6679594-09a4-467d-9da4-ed70b2bc49a9.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898645221811</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lubrificante Ut 40 300ml</t>
+          <t>Eleminador De Odores Procao Gatilho 500ml Flower</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f31d1178-066d-4566-8f2b-af000c5123a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e330448-4aa0-4fca-8c58-a56bb7bcd308.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7897520100821</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esponja Para Lavagem Rodabrill</t>
+          <t>Eleminador De Odores Procao 2l Marine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36b20840-ab3c-4739-ad8b-dbedc63f1465.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dd8044f-22c8-49a7-860a-f41f516b6f63.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7897520100500</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lava Autos Concentrado Rodabrill 500ml Neutro</t>
+          <t>Breeze Bubble Spark 1un</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b42af48-b35e-4a8f-986d-f1fb285172fc.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7897520016665</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cerabril Tradicional 200g</t>
+          <t>Breeze Bubble Pulse 1un</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/238744cd-5bce-45c8-8a01-4597368e332c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7897520016689</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Protetivo Radiador Cockipit 1lt Org Rosa</t>
+          <t>Breeze Bubble Bloom 1un</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aeb09ce-7c27-4ec2-8ca1-b87949f079fa.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7897520016689</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Espuma Mult Rodabrill 400ml</t>
+          <t>Banho A Seco Para Cães Procão 500ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 29,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890a820a-b79a-42ea-8669-2ce930a18d88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ef9d76a-da85-49bf-8d2b-c1785f62603f.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7897520009377</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kit Limpa Tela Spray + 2 Esp Microfribas</t>
+          <t>Limpa E Hidrata Couro Proauto 150g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d6cad16-c831-4abb-b47f-005890cf10a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bc1cfaa-c6f3-423f-bc0f-f04f72078e60.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898645220043</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Limpa E Hidrata Couro Proauto 150g</t>
+          <t>Espuma Mágica Neutralizador De Odores Para Tecidos 500ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bc1cfaa-c6f3-423f-bc0f-f04f72078e60.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7897520016603</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eleminador De Odores Procao Gatilho 500ml Flower</t>
+          <t>Lubrificante Ut 40 300ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e330448-4aa0-4fca-8c58-a56bb7bcd308.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f31d1178-066d-4566-8f2b-af000c5123a2.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896495000655</t>
         </is>
       </c>
     </row>
@@ -731,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Breeze Cheirinho Future</t>
+          <t>Breeze Cheirinho Retro</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +796,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/579f8285-8b06-4cc1-9d98-8d9932eefaa2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c41c13b2-960c-4883-a349-3523322d9370.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898645221804</t>
         </is>
       </c>
     </row>
@@ -771,6 +831,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbc2ff25-bff9-4147-be23-d8040670500a.jpg</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7897520100838</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Breeze Cheirinho Retro</t>
+          <t>Cerabril Tradicional 200g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c41c13b2-960c-4883-a349-3523322d9370.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/238744cd-5bce-45c8-8a01-4597368e332c.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7898275010106</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Breeze Cheirinho Secret</t>
+          <t>Esponja Para Lavagem Rodabrill</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6679594-09a4-467d-9da4-ed70b2bc49a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36b20840-ab3c-4739-ad8b-dbedc63f1465.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7898275016054</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Espuma Mágica Neutralizador De Odores Para Tecidos 500ml</t>
+          <t>Aromatizante Gel Rodabrisa 60g Carro Novo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8be55813-98cf-462c-b82f-6387c9fcce9e.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898275013107</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Banho A Seco Para Cães Procão 500ml</t>
+          <t>Espuma Mult Rodabrill 400ml</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 29,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ef9d76a-da85-49bf-8d2b-c1785f62603f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890a820a-b79a-42ea-8669-2ce930a18d88.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7898275010953</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Breeze Bubble Bloom 1un</t>
+          <t>Lava Autos Concentrado Rodabrill 500ml Neutro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b42af48-b35e-4a8f-986d-f1fb285172fc.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898275010199</t>
         </is>
       </c>
     </row>
@@ -920,98 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Breeze Bubble Pulse 1un</t>
+          <t>Breeze Cheirinho Future</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Automotivos</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Breeze Bubble Spark 1un</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Automotivos</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Desinfentante Classic Plus Procao 2l Citronela</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4822dacd-50c0-47b8-8fa6-d7a86cbb1d05.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Automotivos</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Eleminador De Odores Procao 2l Marine</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dd8044f-22c8-49a7-860a-f41f516b6f63.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/579f8285-8b06-4cc1-9d98-8d9932eefaa2.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898645221828</t>
         </is>
       </c>
     </row>
